--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_beg.xlsx
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You never should’ve call that man “His Majesty.” Theresa is the only one who gets that title. You might’ve lived to speak a few more words.
+    <t xml:space="preserve">[name="W"]  You never should’ve call that man 'His Majesty.' Theresa is the only one who gets that title. You might’ve lived to speak a few more words.
 </t>
   </si>
   <si>
@@ -1820,7 +1820,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  —Oh, right. This is where “W” died.
+    <t xml:space="preserve">[name="Hoederer"]  —Oh, right. This is where 'W' died.
 </t>
   </si>
   <si>
@@ -1900,7 +1900,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m just not in the mood to hear you calling yourself a “Sarkaz” right now.
+    <t xml:space="preserve">[name="W"]  I’m just not in the mood to hear you calling yourself a 'Sarkaz' right now.
 </t>
   </si>
   <si>
@@ -1968,7 +1968,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  The so-called “Reunion Movement” is gathering the oppressed and downtrodden of all races. It’s a fine piece to put in play for the next required step.
+    <t xml:space="preserve">[name="Hoederer"]  The so-called 'Reunion Movement' is gathering the oppressed and downtrodden of all races. It’s a fine piece to put in play for the next required step.
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t worry. I’ve always been good at “coping” with my boss.
+    <t xml:space="preserve">[name="W"]  Don’t worry. I’ve always been good at 'coping' with my boss.
 </t>
   </si>
   <si>
@@ -2024,7 +2024,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Welcome back, “W.”
+    <t xml:space="preserve">[name="Hoederer"]  Welcome back, 'W.'
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_beg.xlsx
+++ b/story/Activity Story 活动剧情/act9d0 Darknights Memoir 生于黑夜 闇夜に生きる/level_act9d0_04_beg.xlsx
@@ -1400,11 +1400,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">But even if I stayed there, I wouldn’t have been able to accomplish anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5:58 AM \ Light drizzle   
+    <t xml:space="preserve">But even if I stayed there, I wouldn't have been able to accomplish anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:58 A.M. \ Light drizzle   
 </t>
   </si>
   <si>
@@ -1428,11 +1428,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  C’mon, say something. You’re normally pretty glib.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...What’s there to talk about?
+    <t xml:space="preserve">[name="Ines"]  C'mon, say something. You're normally pretty glib.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...What's there to talk about?
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  What the hell happened these last six months? Aren’t things moving way too quickly...?
+    <t xml:space="preserve">[name="Ines"]  What the hell happened these last six months? Aren't things moving way too quickly...?
 </t>
   </si>
   <si>
@@ -1456,11 +1456,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  I guess I shouldn’t say nobody.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Her Majesty... and the people around her. That never should’ve happened to them. That’s what we all think.
+    <t xml:space="preserve">[name="Hoederer"]  I guess I shouldn't say nobody.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Her Majesty... and the people around her. That never should've happened to them. That's what we all think.
 </t>
   </si>
   <si>
@@ -1476,11 +1476,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Everyone knew which side we were on, and it’s not like we were even ready to leave.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...If that’s really the end of things, we have nowhere to run.
+    <t xml:space="preserve">[name="Hoederer"]  Everyone knew which side we were on, and it's not like we were even ready to leave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...If that's really the end of things, we have nowhere to run.
 </t>
   </si>
   <si>
@@ -1488,7 +1488,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Maybe we’ll... have to return to the real battlefield.
+    <t xml:space="preserve">[name="Hoederer"]  Maybe we'll... have to return to the real battlefield.
 </t>
   </si>
   <si>
@@ -1496,15 +1496,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  We all knew it deep down, didn’t we?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  If we really wanted to wash our hands of the whole thing, we wouldn’t have agreed to work with them in the first place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  We could’ve left on our own, crossed Lake Valendan, and made a killing somewhere else—
+    <t xml:space="preserve">[name="Ines"]  We all knew it deep down, didn't we?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  If we really wanted to wash our hands of the whole thing, we wouldn't have agreed to work with them in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  We could've left on our own, crossed Lake Valendan, and made a killing somewhere else—
 </t>
   </si>
   <si>
@@ -1516,7 +1516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  It’d be even harder for us to pull out of there. Too easy to get lost in that warmth. We’d get drunk on it.
+    <t xml:space="preserve">[name="Ines"]  It'd be even harder for us to pull out of there. Too easy to get lost in that warmth. We'd get drunk on it.
 </t>
   </si>
   <si>
@@ -1524,15 +1524,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  You still have that same old problem. You’re getting sentimental again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  I can’t tell you how long, but it feels like it’s been ages since I’ve made a good decision that actually helped us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  Maybe we really don’t belong on the battlefield anymore...
+    <t xml:space="preserve">[name="Ines"]  You still have that same old problem. You're getting sentimental again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  I can't tell you how long, but it feels like it's been ages since I've made a good decision that actually helped us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  Maybe we really don't belong on the battlefield anymore...
 </t>
   </si>
   <si>
@@ -1544,7 +1544,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Don’t always blame yourself. We all share the burden.
+    <t xml:space="preserve">[name="Ines"]  Don't always blame yourself. We all share the burden.
 </t>
   </si>
   <si>
@@ -1552,7 +1552,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  She’s made a lot of money for us. And offed a lot of people.
+    <t xml:space="preserve">[name="Ines"]  She's made a lot of money for us. And offed a lot of people.
 </t>
   </si>
   <si>
@@ -1564,7 +1564,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  I don’t think she’d die so easily.
+    <t xml:space="preserve">[name="Ines"]  I don't think she'd die so easily.
 </t>
   </si>
   <si>
@@ -1592,23 +1592,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You look dead inside. I heard what you’ve been up to lately, W.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Then, you should also know that you’re the last one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re right. As you can see, a lot of people died in this battle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  All you’re doing at this point is running up the score.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  The way I see things, anyone who isn’t dead yet has done a lot more than you ever have.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You look dead inside. I heard what you've been up to lately, W.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Then, you should also know that you're the last one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're right. As you can see, a lot of people died in this battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  All you're doing at this point is running up the score.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  The way I see things, anyone who isn't dead yet has done a lot more than you ever have.
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  His Majesty didn’t completely annihilate you because he wants to put a stop to the chaos. Kazdel needs him to pave a new path forward—
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  His Majesty didn't completely annihilate you because he wants to put a stop to the chaos. Kazdel needs him to pave a new path forward—
 </t>
   </si>
   <si>
@@ -1640,15 +1640,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Of course you won’t say it, but I know that’s what you’re thinking. And while you’re thinking, you’re trying to erase all those faces from your memory, one by one.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  After all, you’re just here to vent. Just a petty little mercenary, drowning in her worthless revenge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You can’t beat anyone.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Of course you won't say it, but I know that's what you're thinking. And while you're thinking, you're trying to erase all those faces from your memory, one by one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  After all, you're just here to vent. Just a petty little mercenary, drowning in her worthless revenge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You can't beat anyone.
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Killing me doesn’t prove anything.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Killing me doesn't prove anything.
 </t>
   </si>
   <si>
@@ -1664,15 +1664,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  A bit of both. I won’t deny it.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Ever since that— since I almost choked on the blood of my friends, I haven’t been able to hold a weapon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  We’ve all bled. Splattered it across Babel’s palace. What you've seen, I've seen so much more.
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  A bit of both. I won't deny it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Ever since that— since I almost choked on the blood of my friends, I haven't been able to hold a weapon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  We've all bled. Splattered it across Babel's palace. What you've seen, I've seen so much more.
 </t>
   </si>
   <si>
@@ -1692,15 +1692,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Can you really pull that trigger without any anger behind it? Or, are you so far gone that you don’t even feel anything?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  You’re alone now... How many of our people do you plan to hunt down?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don’t you realize... you’re not even thinking about Her Majesty Theresa? You’re helping him silence us, and...
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Can you really pull that trigger without any anger behind it? Or, are you so far gone that you don't even feel anything?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  You're alone now... How many of our people do you plan to hunt down?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Sarkaz Warrior"]  Don't you realize... you're not even thinking about Her Majesty Theresa? You're helping him silence us, and...
 </t>
   </si>
   <si>
@@ -1712,19 +1712,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  But you won’t. None of you will. When you people killed her, you knew that you’d never be able to return to Kazdel again. You’ll never go back to the way things were before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Nobody who actually saw what she looked like would’ve been able to keep cool. Except for those real monsters.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  So you’re all waiting for one special person: me, your executioner. I’m here to finally set you free.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  And I’m doing it for free too! How great is that?!
+    <t xml:space="preserve">[name="W"]  But you won't. None of you will. When you people killed her, you knew that you'd never be able to return to Kazdel again. You'll never go back to the way things were before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Nobody who actually saw what she looked like would've been able to keep cool. Except for those real monsters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  So you're all waiting for one special person: me, your executioner. I'm here to finally set you free.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  And I'm doing it for free too! How great is that?!
 </t>
   </si>
   <si>
@@ -1748,11 +1748,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You never should’ve call that man 'His Majesty.' Theresa is the only one who gets that title. You might’ve lived to speak a few more words.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I hope the usurper isn’t rushing to get fitted for a crown. I mean, he’ll be losing his head in a minute here. It’d be such a waste. Just wait ‘til Theresa...
+    <t xml:space="preserve">[name="W"]  You never should've call that man 'His Majesty.' Theresa is the only one who gets that title. You might've lived to speak a few more words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I hope the usurper isn't rushing to get fitted for a crown. I mean, he'll be losing his head in a minute here. It'd be such a waste. Just wait 'til Theresa...
 </t>
   </si>
   <si>
@@ -1764,7 +1764,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  If you don’t surrender, you get other mercs on you. Next time, you’ll be the prey.
+    <t xml:space="preserve">[name="???"]  If you don't surrender, you get other mercs on you. Next time, you'll be the prey.
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...Compared to how long this war has been going on, it was a weekend getaway. But I can’t believe how you’ve grown.
+    <t xml:space="preserve">[name="Hoederer"]  ...Compared to how long this war has been going on, it was a weekend getaway. But I can't believe how you've grown.
 </t>
   </si>
   <si>
@@ -1788,11 +1788,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ines"]  Our intel did say that you’d be alone here—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  But we’re almost 200 kilometers out from Taba. What do you plan to do with that rickety corpse of yours?
+    <t xml:space="preserve">[name="Ines"]  Our intel did say that you'd be alone here—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  But we're almost 200 kilometers out from Taba. What do you plan to do with that rickety corpse of yours?
 </t>
   </si>
   <si>
@@ -1800,15 +1800,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  It wasn’t that hard. But I guess there is a lot of stuff that’s a pain in the ass to do by myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Like if you’re rushing to patch yourself up, you could suddenly find your infection getting a lot worse?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  It’s whatever, as long as I don’t die. And I don’t die easy.
+    <t xml:space="preserve">[name="W"]  It wasn't that hard. But I guess there is a lot of stuff that's a pain in the ass to do by myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Like if you're rushing to patch yourself up, you could suddenly find your infection getting a lot worse?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  It's whatever, as long as I don't die. And I don't die easy.
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Here? We’re on the western battlezone. The coordinates are—
+    <t xml:space="preserve">[name="Hoederer"]  Here? We're on the western battlezone. The coordinates are—
 </t>
   </si>
   <si>
@@ -1840,11 +1840,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I know you two came for a reason. Just like last time, let’s cut to the chase.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...The Regent has united all of Kazdel’s armed forces.
+    <t xml:space="preserve">[name="W"]  I know you two came for a reason. Just like last time, let's cut to the chase.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  ...The Regent has united all of Kazdel's armed forces.
 </t>
   </si>
   <si>
@@ -1856,7 +1856,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  It’s understandable.
+    <t xml:space="preserve">[name="Hoederer"]  It's understandable.
 </t>
   </si>
   <si>
@@ -1868,19 +1868,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Bad idea, even if you’re trying to get revenge.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Don’t forget how many of our people with us now fought side-by-side with Theresa.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  Sarkaz mercenaries like us never really had a dog in the fight. Most people don’t like thinking. They just need someone to give them orders.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  So if all the Sarkaz will listen to the Regent, then he’s won.
+    <t xml:space="preserve">[name="Hoederer"]  Bad idea, even if you're trying to get revenge.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Don't forget how many of our people with us now fought side-by-side with Theresa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  Sarkaz mercenaries like us never really had a dog in the fight. Most people don't like thinking. They just need someone to give them orders.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  So if all the Sarkaz will listen to the Regent, then he's won.
 </t>
   </si>
   <si>
@@ -1892,7 +1892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Then your little disguise isn’t even skin deep. Keep playing the Sarkaz and you’re gonna get yourself killed.
+    <t xml:space="preserve">[name="W"]  Then your little disguise isn't even skin deep. Keep playing the Sarkaz and you're gonna get yourself killed.
 </t>
   </si>
   <si>
@@ -1900,11 +1900,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  I’m just not in the mood to hear you calling yourself a 'Sarkaz' right now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ines"]  I decided to go down this path, and it’s the only one I can follow at this point.
+    <t xml:space="preserve">[name="W"]  I'm just not in the mood to hear you calling yourself a 'Sarkaz' right now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ines"]  I decided to go down this path, and it's the only one I can follow at this point.
 </t>
   </si>
   <si>
@@ -1912,23 +1912,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  Most Sarkaz don’t have a choice. Not to mention, it’s also a tempting proposition for many others.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  ...So let me guess, because you didn’t have time to make it out, you accepted the murderer’s proposal?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  We’d be a bunch of icy stiffs if we didn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  Looks like I’m not gonna be able to change your mind.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  I’m not as cruel as you used to be. Why don’t we let our swords do the talking... for old time’s sake?
+    <t xml:space="preserve">[name="Hoederer"]  Most Sarkaz don't have a choice. Not to mention, it's also a tempting proposition for many others.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  ...So let me guess, because you didn't have time to make it out, you accepted the murderer's proposal?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  We'd be a bunch of icy stiffs if we didn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  Looks like I'm not gonna be able to change your mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  I'm not as cruel as you used to be. Why don't we let our swords do the talking... for old time's sake?
 </t>
   </si>
   <si>
@@ -1936,15 +1936,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...We’re not going back to Kazdel. We’re headed to Ursus.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  —Now that’s a surprise. You should’ve said that earlier. I was this close to killing you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="W"]  But you’ve got my attention. Let’s talk, Captain Hoederer.
+    <t xml:space="preserve">[name="Hoederer"]  ...We're not going back to Kazdel. We're headed to Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  —Now that's a surprise. You should've said that earlier. I was this close to killing you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="W"]  But you've got my attention. Let's talk, Captain Hoederer.
 </t>
   </si>
   <si>
@@ -1952,7 +1952,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  They’re paying top dollar for mercs, and the Regent is looking to manipulate some of the Infected for his own goals...
+    <t xml:space="preserve">[name="Hoederer"]  They're paying top dollar for mercs, and the Regent is looking to manipulate some of the Infected for his own goals...
 </t>
   </si>
   <si>
@@ -1964,11 +1964,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  And the Regent’s not interested in the dilapidated, vacant throne of Kazdel anymore. He’s got his eye on someplace else.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  The so-called 'Reunion Movement' is gathering the oppressed and downtrodden of all races. It’s a fine piece to put in play for the next required step.
+    <t xml:space="preserve">[name="Hoederer"]  And the Regent's not interested in the dilapidated, vacant throne of Kazdel anymore. He's got his eye on someplace else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  The so-called 'Reunion Movement' is gathering the oppressed and downtrodden of all races. It's a fine piece to put in play for the next required step.
 </t>
   </si>
   <si>
@@ -1980,7 +1980,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Hoederer"]  ...We’ll take things one step at a time, W.
+    <t xml:space="preserve">[name="Hoederer"]  ...We'll take things one step at a time, W.
 </t>
   </si>
   <si>
@@ -1992,7 +1992,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  You’re right. That does seem like a better move.
+    <t xml:space="preserve">[name="W"]  You're right. That does seem like a better move.
 </t>
   </si>
   <si>
@@ -2004,11 +2004,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  ...But I’m not letting you two run the show this time. There’s things I want to do, choices I want to make for myself. That cool with you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Hoederer"]  The Regent will send someone to muster the mercenary army. If it’s just between our little group here... that’s fine.
+    <t xml:space="preserve">[name="W"]  ...But I'm not letting you two run the show this time. There's things I want to do, choices I want to make for myself. That cool with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Hoederer"]  The Regent will send someone to muster the mercenary army. If it's just between our little group here... that's fine.
 </t>
   </si>
   <si>
@@ -2016,7 +2016,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="W"]  Don’t worry. I’ve always been good at 'coping' with my boss.
+    <t xml:space="preserve">[name="W"]  Don't worry. I've always been good at 'coping' with my boss.
 </t>
   </si>
   <si>
@@ -2036,7 +2036,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">I pushed Ines down this path too, but she’s stronger than I expected.
+    <t xml:space="preserve">I pushed Ines down this path too, but she's stronger than I expected.
 </t>
   </si>
   <si>
@@ -2052,7 +2052,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Maybe I’m the one who wants to escape from this place the most.
+    <t xml:space="preserve">Maybe I'm the one who wants to escape from this place the most.
 </t>
   </si>
   <si>
